--- a/Inventory of Keyboard Combinations.xlsx
+++ b/Inventory of Keyboard Combinations.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafael/git/gzb/Beyond4P_Apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAA2B6A-160C-42F1-8DDE-88870B4FF439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-16110" windowWidth="25590" windowHeight="14955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="11600" windowHeight="20360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WINDOWS" sheetId="2" r:id="rId1"/>
@@ -22,18 +21,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="128">
   <si>
     <t>Key</t>
   </si>
@@ -435,7 +434,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -725,7 +724,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1042,7 +1041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AX127"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1052,10 +1051,10 @@
       <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="50" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="50" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:50" ht="21" x14ac:dyDescent="0.35">
@@ -1078,7 +1077,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>83</v>
       </c>
@@ -1137,7 +1136,7 @@
       <c r="AW3" s="4"/>
       <c r="AX3" s="5"/>
     </row>
-    <row r="4" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>84</v>
       </c>
@@ -1188,7 +1187,7 @@
       <c r="AW4" s="4"/>
       <c r="AX4" s="5"/>
     </row>
-    <row r="5" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>85</v>
       </c>
@@ -1239,7 +1238,7 @@
       <c r="AW5" s="4"/>
       <c r="AX5" s="5"/>
     </row>
-    <row r="6" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>86</v>
       </c>
@@ -1282,7 +1281,7 @@
       <c r="AW6" s="4"/>
       <c r="AX6" s="5"/>
     </row>
-    <row r="7" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -1323,7 +1322,7 @@
       <c r="AW7" s="4"/>
       <c r="AX7" s="5"/>
     </row>
-    <row r="9" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
@@ -1439,23 +1438,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D10" s="36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D11" s="36" t="s">
         <v>88</v>
       </c>
       <c r="E11" s="36"/>
     </row>
-    <row r="12" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -1512,7 +1511,7 @@
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
     </row>
-    <row r="14" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1578,7 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
     </row>
-    <row r="15" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -1646,7 +1645,7 @@
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
     </row>
-    <row r="16" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +1708,7 @@
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
     </row>
-    <row r="17" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>5</v>
       </c>
@@ -1772,7 +1771,7 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
     </row>
-    <row r="18" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -1835,7 +1834,7 @@
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
     </row>
-    <row r="19" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -1898,7 +1897,7 @@
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
     </row>
-    <row r="20" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>8</v>
       </c>
@@ -1961,7 +1960,7 @@
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
     </row>
-    <row r="21" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>9</v>
       </c>
@@ -2024,7 +2023,7 @@
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
     </row>
-    <row r="22" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>10</v>
       </c>
@@ -2087,7 +2086,7 @@
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
     </row>
-    <row r="23" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -2150,7 +2149,7 @@
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
     </row>
-    <row r="24" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -2211,7 +2210,7 @@
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
     </row>
-    <row r="25" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>13</v>
       </c>
@@ -2272,7 +2271,7 @@
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
     </row>
-    <row r="27" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -2329,7 +2328,7 @@
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
     </row>
-    <row r="28" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -2388,7 +2387,7 @@
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
     </row>
-    <row r="29" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>28</v>
       </c>
@@ -2447,7 +2446,7 @@
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
     </row>
-    <row r="30" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -2502,7 +2501,7 @@
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
     </row>
-    <row r="32" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>1</v>
       </c>
@@ -2561,7 +2560,7 @@
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
     </row>
-    <row r="33" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>2</v>
       </c>
@@ -2624,7 +2623,7 @@
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
     </row>
-    <row r="34" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>3</v>
       </c>
@@ -2677,7 +2676,7 @@
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
     </row>
-    <row r="35" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>4</v>
       </c>
@@ -2730,7 +2729,7 @@
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
     </row>
-    <row r="36" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>5</v>
       </c>
@@ -2783,7 +2782,7 @@
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
     </row>
-    <row r="37" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>6</v>
       </c>
@@ -2836,7 +2835,7 @@
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
     </row>
-    <row r="38" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
         <v>7</v>
       </c>
@@ -2889,7 +2888,7 @@
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
     </row>
-    <row r="39" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
         <v>8</v>
       </c>
@@ -2942,7 +2941,7 @@
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
     </row>
-    <row r="40" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
         <v>9</v>
       </c>
@@ -2995,7 +2994,7 @@
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
     </row>
-    <row r="41" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
         <v>0</v>
       </c>
@@ -3048,7 +3047,7 @@
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
     </row>
-    <row r="44" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>35</v>
       </c>
@@ -3108,7 +3107,7 @@
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
     </row>
-    <row r="45" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>36</v>
       </c>
@@ -3165,7 +3164,7 @@
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
     </row>
-    <row r="46" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>37</v>
       </c>
@@ -3221,7 +3220,7 @@
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
     </row>
-    <row r="47" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>38</v>
       </c>
@@ -3275,7 +3274,7 @@
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
     </row>
-    <row r="48" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>39</v>
       </c>
@@ -3327,7 +3326,7 @@
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
     </row>
-    <row r="49" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>40</v>
       </c>
@@ -3377,7 +3376,7 @@
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
     </row>
-    <row r="50" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>41</v>
       </c>
@@ -3429,7 +3428,7 @@
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
     </row>
-    <row r="51" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>60</v>
       </c>
@@ -3481,7 +3480,7 @@
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
     </row>
-    <row r="52" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -3533,7 +3532,7 @@
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
     </row>
-    <row r="53" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>43</v>
       </c>
@@ -3585,7 +3584,7 @@
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
     </row>
-    <row r="54" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -3637,7 +3636,7 @@
       <c r="AW54" s="1"/>
       <c r="AX54" s="1"/>
     </row>
-    <row r="55" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>45</v>
       </c>
@@ -3689,7 +3688,7 @@
       <c r="AW55" s="1"/>
       <c r="AX55" s="1"/>
     </row>
-    <row r="56" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>46</v>
       </c>
@@ -3741,7 +3740,7 @@
       <c r="AW56" s="1"/>
       <c r="AX56" s="1"/>
     </row>
-    <row r="57" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>47</v>
       </c>
@@ -3793,7 +3792,7 @@
       <c r="AW57" s="1"/>
       <c r="AX57" s="1"/>
     </row>
-    <row r="58" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>48</v>
       </c>
@@ -3845,7 +3844,7 @@
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
     </row>
-    <row r="59" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>49</v>
       </c>
@@ -3897,7 +3896,7 @@
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
     </row>
-    <row r="60" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>50</v>
       </c>
@@ -3949,7 +3948,7 @@
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
     </row>
-    <row r="61" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>51</v>
       </c>
@@ -4001,7 +4000,7 @@
       <c r="AW61" s="1"/>
       <c r="AX61" s="1"/>
     </row>
-    <row r="62" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>52</v>
       </c>
@@ -4053,7 +4052,7 @@
       <c r="AW62" s="1"/>
       <c r="AX62" s="1"/>
     </row>
-    <row r="63" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>53</v>
       </c>
@@ -4105,7 +4104,7 @@
       <c r="AW63" s="1"/>
       <c r="AX63" s="1"/>
     </row>
-    <row r="64" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -4157,7 +4156,7 @@
       <c r="AW64" s="1"/>
       <c r="AX64" s="1"/>
     </row>
-    <row r="65" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>55</v>
       </c>
@@ -4209,7 +4208,7 @@
       <c r="AW65" s="1"/>
       <c r="AX65" s="1"/>
     </row>
-    <row r="66" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>56</v>
       </c>
@@ -4258,7 +4257,7 @@
       <c r="AW66" s="1"/>
       <c r="AX66" s="1"/>
     </row>
-    <row r="67" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>57</v>
       </c>
@@ -4307,7 +4306,7 @@
       <c r="AW67" s="1"/>
       <c r="AX67" s="1"/>
     </row>
-    <row r="68" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>58</v>
       </c>
@@ -4356,7 +4355,7 @@
       <c r="AW68" s="1"/>
       <c r="AX68" s="1"/>
     </row>
-    <row r="69" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>59</v>
       </c>
@@ -4405,7 +4404,7 @@
       <c r="AW69" s="1"/>
       <c r="AX69" s="1"/>
     </row>
-    <row r="71" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>70</v>
       </c>
@@ -4454,7 +4453,7 @@
       <c r="AW71" s="1"/>
       <c r="AX71" s="1"/>
     </row>
-    <row r="72" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>71</v>
       </c>
@@ -4505,7 +4504,7 @@
       <c r="AW72" s="1"/>
       <c r="AX72" s="1"/>
     </row>
-    <row r="73" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>72</v>
       </c>
@@ -4552,7 +4551,7 @@
       <c r="AW73" s="1"/>
       <c r="AX73" s="1"/>
     </row>
-    <row r="74" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>73</v>
       </c>
@@ -4597,7 +4596,7 @@
       <c r="AW74" s="1"/>
       <c r="AX74" s="1"/>
     </row>
-    <row r="75" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>74</v>
       </c>
@@ -4640,7 +4639,7 @@
       <c r="AW75" s="1"/>
       <c r="AX75" s="1"/>
     </row>
-    <row r="76" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>75</v>
       </c>
@@ -4683,7 +4682,7 @@
       <c r="AW76" s="1"/>
       <c r="AX76" s="1"/>
     </row>
-    <row r="77" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>76</v>
       </c>
@@ -4726,7 +4725,7 @@
       <c r="AW77" s="1"/>
       <c r="AX77" s="1"/>
     </row>
-    <row r="78" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>77</v>
       </c>
@@ -4769,7 +4768,7 @@
       <c r="AW78" s="1"/>
       <c r="AX78" s="1"/>
     </row>
-    <row r="79" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>78</v>
       </c>
@@ -4812,7 +4811,7 @@
       <c r="AW79" s="1"/>
       <c r="AX79" s="1"/>
     </row>
-    <row r="80" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>79</v>
       </c>
@@ -4855,7 +4854,7 @@
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
     </row>
-    <row r="81" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>80</v>
       </c>
@@ -4900,7 +4899,7 @@
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
     </row>
-    <row r="84" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>33</v>
       </c>
@@ -4941,7 +4940,7 @@
       <c r="AW84" s="1"/>
       <c r="AX84" s="1"/>
     </row>
-    <row r="85" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>34</v>
       </c>
@@ -4982,7 +4981,7 @@
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
     </row>
-    <row r="86" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -5020,7 +5019,7 @@
       <c r="AW86" s="1"/>
       <c r="AX86" s="1"/>
     </row>
-    <row r="87" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -5058,7 +5057,7 @@
       <c r="AW87" s="1"/>
       <c r="AX87" s="1"/>
     </row>
-    <row r="88" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -5096,7 +5095,7 @@
       <c r="AW88" s="1"/>
       <c r="AX88" s="1"/>
     </row>
-    <row r="89" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -5134,7 +5133,7 @@
       <c r="AW89" s="1"/>
       <c r="AX89" s="1"/>
     </row>
-    <row r="91" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
         <v>17</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>18</v>
       </c>
@@ -5187,7 +5186,7 @@
       <c r="AW93" s="1"/>
       <c r="AX93" s="1"/>
     </row>
-    <row r="94" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>19</v>
       </c>
@@ -5232,7 +5231,7 @@
       <c r="AW94" s="1"/>
       <c r="AX94" s="1"/>
     </row>
-    <row r="95" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>20</v>
       </c>
@@ -5277,7 +5276,7 @@
       <c r="AW95" s="1"/>
       <c r="AX95" s="1"/>
     </row>
-    <row r="96" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>26</v>
       </c>
@@ -5320,7 +5319,7 @@
       <c r="AW96" s="1"/>
       <c r="AX96" s="1"/>
     </row>
-    <row r="97" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>21</v>
       </c>
@@ -5363,7 +5362,7 @@
       <c r="AW97" s="1"/>
       <c r="AX97" s="1"/>
     </row>
-    <row r="98" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>22</v>
       </c>
@@ -5406,7 +5405,7 @@
       <c r="AW98" s="1"/>
       <c r="AX98" s="1"/>
     </row>
-    <row r="99" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>23</v>
       </c>
@@ -5449,7 +5448,7 @@
       <c r="AW99" s="1"/>
       <c r="AX99" s="1"/>
     </row>
-    <row r="100" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>24</v>
       </c>
@@ -5492,7 +5491,7 @@
       <c r="AW100" s="1"/>
       <c r="AX100" s="1"/>
     </row>
-    <row r="101" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>25</v>
       </c>
@@ -5535,7 +5534,7 @@
       <c r="AW101" s="1"/>
       <c r="AX101" s="1"/>
     </row>
-    <row r="102" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>27</v>
       </c>
@@ -5578,7 +5577,7 @@
       <c r="AW102" s="1"/>
       <c r="AX102" s="1"/>
     </row>
-    <row r="104" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>33</v>
       </c>
@@ -5621,7 +5620,7 @@
       <c r="AW104" s="1"/>
       <c r="AX104" s="1"/>
     </row>
-    <row r="105" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>34</v>
       </c>
@@ -5664,7 +5663,7 @@
       <c r="AW105" s="1"/>
       <c r="AX105" s="1"/>
     </row>
-    <row r="106" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -5704,7 +5703,7 @@
       <c r="AW106" s="1"/>
       <c r="AX106" s="1"/>
     </row>
-    <row r="107" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:50" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -5742,7 +5741,7 @@
       <c r="AW107" s="1"/>
       <c r="AX107" s="1"/>
     </row>
-    <row r="109" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B109" s="7" t="s">
         <v>16</v>
       </c>
@@ -5750,7 +5749,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>18</v>
       </c>
@@ -5811,7 +5810,7 @@
       <c r="AW111" s="1"/>
       <c r="AX111" s="1"/>
     </row>
-    <row r="112" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>19</v>
       </c>
@@ -5872,7 +5871,7 @@
       <c r="AW112" s="1"/>
       <c r="AX112" s="1"/>
     </row>
-    <row r="113" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>20</v>
       </c>
@@ -5933,7 +5932,7 @@
       <c r="AW113" s="1"/>
       <c r="AX113" s="1"/>
     </row>
-    <row r="114" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>26</v>
       </c>
@@ -5992,7 +5991,7 @@
       <c r="AW114" s="1"/>
       <c r="AX114" s="1"/>
     </row>
-    <row r="115" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>21</v>
       </c>
@@ -6051,7 +6050,7 @@
       <c r="AW115" s="1"/>
       <c r="AX115" s="1"/>
     </row>
-    <row r="116" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>22</v>
       </c>
@@ -6110,7 +6109,7 @@
       <c r="AW116" s="1"/>
       <c r="AX116" s="1"/>
     </row>
-    <row r="117" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>23</v>
       </c>
@@ -6169,7 +6168,7 @@
       <c r="AW117" s="1"/>
       <c r="AX117" s="1"/>
     </row>
-    <row r="118" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>24</v>
       </c>
@@ -6228,7 +6227,7 @@
       <c r="AW118" s="1"/>
       <c r="AX118" s="1"/>
     </row>
-    <row r="119" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>25</v>
       </c>
@@ -6287,7 +6286,7 @@
       <c r="AW119" s="1"/>
       <c r="AX119" s="1"/>
     </row>
-    <row r="120" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>27</v>
       </c>
@@ -6346,7 +6345,7 @@
       <c r="AW120" s="1"/>
       <c r="AX120" s="1"/>
     </row>
-    <row r="121" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>108</v>
       </c>
@@ -6401,7 +6400,7 @@
       <c r="AW121" s="1"/>
       <c r="AX121" s="1"/>
     </row>
-    <row r="122" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>28</v>
       </c>
@@ -6458,7 +6457,7 @@
       <c r="AW122" s="1"/>
       <c r="AX122" s="1"/>
     </row>
-    <row r="124" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>33</v>
       </c>
@@ -6501,7 +6500,7 @@
       <c r="AW124" s="1"/>
       <c r="AX124" s="1"/>
     </row>
-    <row r="125" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:50" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>34</v>
       </c>
@@ -6544,7 +6543,7 @@
       <c r="AW125" s="1"/>
       <c r="AX125" s="1"/>
     </row>
-    <row r="126" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:50" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -6584,7 +6583,7 @@
       <c r="AW126" s="1"/>
       <c r="AX126" s="1"/>
     </row>
-    <row r="127" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:50" x14ac:dyDescent="0.2">
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -6629,20 +6628,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BT127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="AO12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
+      <selection pane="bottomRight" activeCell="AQ23" sqref="AQ23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="72" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="72" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:72" ht="21" x14ac:dyDescent="0.35">
@@ -6667,7 +6666,7 @@
       <c r="P1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="3" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>83</v>
       </c>
@@ -6748,7 +6747,7 @@
       <c r="BS3" s="4"/>
       <c r="BT3" s="5"/>
     </row>
-    <row r="4" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>84</v>
       </c>
@@ -6821,7 +6820,7 @@
       <c r="BS4" s="4"/>
       <c r="BT4" s="5"/>
     </row>
-    <row r="5" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>85</v>
       </c>
@@ -6894,7 +6893,7 @@
       <c r="BS5" s="4"/>
       <c r="BT5" s="5"/>
     </row>
-    <row r="6" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>86</v>
       </c>
@@ -6959,7 +6958,7 @@
       <c r="BS6" s="4"/>
       <c r="BT6" s="5"/>
     </row>
-    <row r="7" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -7022,7 +7021,7 @@
       <c r="BS7" s="4"/>
       <c r="BT7" s="5"/>
     </row>
-    <row r="9" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
@@ -7150,22 +7149,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
       <c r="D10" s="36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
       <c r="D11" s="36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -7203,7 +7202,9 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AH13" s="1"/>
+      <c r="AH13" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -7236,7 +7237,7 @@
       <c r="BS13" s="1"/>
       <c r="BT13" s="1"/>
     </row>
-    <row r="14" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -7290,9 +7291,15 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
+      <c r="AH14" s="1">
+        <v>27</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>79</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>80</v>
+      </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
@@ -7323,7 +7330,7 @@
       <c r="BS14" s="1"/>
       <c r="BT14" s="1"/>
     </row>
-    <row r="15" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -7377,7 +7384,9 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AH15" s="1"/>
+      <c r="AH15" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -7410,7 +7419,7 @@
       <c r="BS15" s="1"/>
       <c r="BT15" s="1"/>
     </row>
-    <row r="16" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -7464,9 +7473,15 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
+      <c r="AH16" s="1">
+        <v>27</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>79</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>82</v>
+      </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
@@ -7497,7 +7512,7 @@
       <c r="BS16" s="1"/>
       <c r="BT16" s="1"/>
     </row>
-    <row r="17" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>5</v>
       </c>
@@ -7551,7 +7566,9 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AH17" s="1"/>
+      <c r="AH17" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -7584,7 +7601,7 @@
       <c r="BS17" s="1"/>
       <c r="BT17" s="1"/>
     </row>
-    <row r="18" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -7652,7 +7669,9 @@
         <v>126</v>
       </c>
       <c r="AF18" s="1"/>
-      <c r="AH18" s="1"/>
+      <c r="AH18" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -7685,7 +7704,7 @@
       <c r="BS18" s="1"/>
       <c r="BT18" s="1"/>
     </row>
-    <row r="19" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -7753,7 +7772,9 @@
         <v>126</v>
       </c>
       <c r="AF19" s="1"/>
-      <c r="AH19" s="1"/>
+      <c r="AH19" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -7786,7 +7807,7 @@
       <c r="BS19" s="1"/>
       <c r="BT19" s="1"/>
     </row>
-    <row r="20" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>8</v>
       </c>
@@ -7854,7 +7875,9 @@
         <v>126</v>
       </c>
       <c r="AF20" s="1"/>
-      <c r="AH20" s="1"/>
+      <c r="AH20" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -7887,7 +7910,7 @@
       <c r="BS20" s="1"/>
       <c r="BT20" s="1"/>
     </row>
-    <row r="21" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>9</v>
       </c>
@@ -7955,11 +7978,21 @@
         <v>126</v>
       </c>
       <c r="AF21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
+      <c r="AH21" s="1">
+        <v>27</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>91</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>49</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>57</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>126</v>
+      </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AP21" s="1"/>
@@ -7988,7 +8021,7 @@
       <c r="BS21" s="1"/>
       <c r="BT21" s="1"/>
     </row>
-    <row r="22" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>10</v>
       </c>
@@ -8056,11 +8089,21 @@
         <v>126</v>
       </c>
       <c r="AF22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
+      <c r="AH22" s="1">
+        <v>27</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>91</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>50</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>48</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>126</v>
+      </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AP22" s="1"/>
@@ -8089,7 +8132,7 @@
       <c r="BS22" s="1"/>
       <c r="BT22" s="1"/>
     </row>
-    <row r="23" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8157,11 +8200,21 @@
         <v>126</v>
       </c>
       <c r="AF23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
+      <c r="AH23" s="1">
+        <v>27</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>91</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>50</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>49</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>126</v>
+      </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AP23" s="1"/>
@@ -8190,7 +8243,7 @@
       <c r="BS23" s="1"/>
       <c r="BT23" s="1"/>
     </row>
-    <row r="24" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -8250,11 +8303,21 @@
         <v>126</v>
       </c>
       <c r="AF24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
+      <c r="AH24" s="1">
+        <v>27</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>91</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>50</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>51</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>126</v>
+      </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AP24" s="1"/>
@@ -8283,7 +8346,7 @@
       <c r="BS24" s="1"/>
       <c r="BT24" s="1"/>
     </row>
-    <row r="25" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>13</v>
       </c>
@@ -8329,11 +8392,21 @@
         <v>126</v>
       </c>
       <c r="AF25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
+      <c r="AH25" s="1">
+        <v>27</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>91</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>50</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>52</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>126</v>
+      </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AP25" s="1"/>
@@ -8362,7 +8435,7 @@
       <c r="BS25" s="1"/>
       <c r="BT25" s="1"/>
     </row>
-    <row r="27" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -8404,7 +8477,9 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AH27" s="1"/>
+      <c r="AH27" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -8437,7 +8512,7 @@
       <c r="BS27" s="1"/>
       <c r="BT27" s="1"/>
     </row>
-    <row r="28" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -8475,7 +8550,9 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AH28" s="1"/>
+      <c r="AH28" s="1">
+        <v>127</v>
+      </c>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -8508,7 +8585,7 @@
       <c r="BS28" s="1"/>
       <c r="BT28" s="1"/>
     </row>
-    <row r="29" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>28</v>
       </c>
@@ -8546,7 +8623,9 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AH29" s="1"/>
+      <c r="AH29" s="1">
+        <v>10</v>
+      </c>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -8579,7 +8658,7 @@
       <c r="BS29" s="1"/>
       <c r="BT29" s="1"/>
     </row>
-    <row r="30" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -8619,7 +8698,9 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AH30" s="1"/>
+      <c r="AH30" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -8652,7 +8733,7 @@
       <c r="BS30" s="1"/>
       <c r="BT30" s="1"/>
     </row>
-    <row r="32" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>1</v>
       </c>
@@ -8719,7 +8800,7 @@
       <c r="BS32" s="1"/>
       <c r="BT32" s="1"/>
     </row>
-    <row r="33" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>2</v>
       </c>
@@ -8786,7 +8867,7 @@
       <c r="BS33" s="1"/>
       <c r="BT33" s="1"/>
     </row>
-    <row r="34" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>3</v>
       </c>
@@ -8849,7 +8930,7 @@
       <c r="BS34" s="1"/>
       <c r="BT34" s="1"/>
     </row>
-    <row r="35" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>4</v>
       </c>
@@ -8912,7 +8993,7 @@
       <c r="BS35" s="1"/>
       <c r="BT35" s="1"/>
     </row>
-    <row r="36" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>5</v>
       </c>
@@ -8975,7 +9056,7 @@
       <c r="BS36" s="1"/>
       <c r="BT36" s="1"/>
     </row>
-    <row r="37" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>6</v>
       </c>
@@ -9038,7 +9119,7 @@
       <c r="BS37" s="1"/>
       <c r="BT37" s="1"/>
     </row>
-    <row r="38" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
         <v>7</v>
       </c>
@@ -9101,7 +9182,7 @@
       <c r="BS38" s="1"/>
       <c r="BT38" s="1"/>
     </row>
-    <row r="39" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
         <v>8</v>
       </c>
@@ -9164,7 +9245,7 @@
       <c r="BS39" s="1"/>
       <c r="BT39" s="1"/>
     </row>
-    <row r="40" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
         <v>9</v>
       </c>
@@ -9227,7 +9308,7 @@
       <c r="BS40" s="1"/>
       <c r="BT40" s="1"/>
     </row>
-    <row r="41" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
         <v>0</v>
       </c>
@@ -9290,7 +9371,7 @@
       <c r="BS41" s="1"/>
       <c r="BT41" s="1"/>
     </row>
-    <row r="44" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>35</v>
       </c>
@@ -9362,7 +9443,7 @@
       <c r="BS44" s="1"/>
       <c r="BT44" s="1"/>
     </row>
-    <row r="45" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>36</v>
       </c>
@@ -9431,7 +9512,7 @@
       <c r="BS45" s="1"/>
       <c r="BT45" s="1"/>
     </row>
-    <row r="46" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>37</v>
       </c>
@@ -9499,7 +9580,7 @@
       <c r="BS46" s="1"/>
       <c r="BT46" s="1"/>
     </row>
-    <row r="47" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>38</v>
       </c>
@@ -9567,7 +9648,7 @@
       <c r="BS47" s="1"/>
       <c r="BT47" s="1"/>
     </row>
-    <row r="48" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>39</v>
       </c>
@@ -9635,7 +9716,7 @@
       <c r="BS48" s="1"/>
       <c r="BT48" s="1"/>
     </row>
-    <row r="49" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>40</v>
       </c>
@@ -9703,7 +9784,7 @@
       <c r="BS49" s="1"/>
       <c r="BT49" s="1"/>
     </row>
-    <row r="50" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>41</v>
       </c>
@@ -9771,7 +9852,7 @@
       <c r="BS50" s="1"/>
       <c r="BT50" s="1"/>
     </row>
-    <row r="51" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>60</v>
       </c>
@@ -9839,7 +9920,7 @@
       <c r="BS51" s="1"/>
       <c r="BT51" s="1"/>
     </row>
-    <row r="52" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -9907,7 +9988,7 @@
       <c r="BS52" s="1"/>
       <c r="BT52" s="1"/>
     </row>
-    <row r="53" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>43</v>
       </c>
@@ -9975,7 +10056,7 @@
       <c r="BS53" s="1"/>
       <c r="BT53" s="1"/>
     </row>
-    <row r="54" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -10043,7 +10124,7 @@
       <c r="BS54" s="1"/>
       <c r="BT54" s="1"/>
     </row>
-    <row r="55" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>45</v>
       </c>
@@ -10111,7 +10192,7 @@
       <c r="BS55" s="1"/>
       <c r="BT55" s="1"/>
     </row>
-    <row r="56" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>46</v>
       </c>
@@ -10179,7 +10260,7 @@
       <c r="BS56" s="1"/>
       <c r="BT56" s="1"/>
     </row>
-    <row r="57" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>47</v>
       </c>
@@ -10247,7 +10328,7 @@
       <c r="BS57" s="1"/>
       <c r="BT57" s="1"/>
     </row>
-    <row r="58" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>48</v>
       </c>
@@ -10315,7 +10396,7 @@
       <c r="BS58" s="1"/>
       <c r="BT58" s="1"/>
     </row>
-    <row r="59" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>49</v>
       </c>
@@ -10383,7 +10464,7 @@
       <c r="BS59" s="1"/>
       <c r="BT59" s="1"/>
     </row>
-    <row r="60" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>50</v>
       </c>
@@ -10451,7 +10532,7 @@
       <c r="BS60" s="1"/>
       <c r="BT60" s="1"/>
     </row>
-    <row r="61" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>51</v>
       </c>
@@ -10519,7 +10600,7 @@
       <c r="BS61" s="1"/>
       <c r="BT61" s="1"/>
     </row>
-    <row r="62" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>52</v>
       </c>
@@ -10587,7 +10668,7 @@
       <c r="BS62" s="1"/>
       <c r="BT62" s="1"/>
     </row>
-    <row r="63" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>53</v>
       </c>
@@ -10655,7 +10736,7 @@
       <c r="BS63" s="1"/>
       <c r="BT63" s="1"/>
     </row>
-    <row r="64" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -10723,7 +10804,7 @@
       <c r="BS64" s="1"/>
       <c r="BT64" s="1"/>
     </row>
-    <row r="65" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>55</v>
       </c>
@@ -10791,7 +10872,7 @@
       <c r="BS65" s="1"/>
       <c r="BT65" s="1"/>
     </row>
-    <row r="66" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>56</v>
       </c>
@@ -10856,7 +10937,7 @@
       <c r="BS66" s="1"/>
       <c r="BT66" s="1"/>
     </row>
-    <row r="67" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>57</v>
       </c>
@@ -10921,7 +11002,7 @@
       <c r="BS67" s="1"/>
       <c r="BT67" s="1"/>
     </row>
-    <row r="68" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>58</v>
       </c>
@@ -10986,7 +11067,7 @@
       <c r="BS68" s="1"/>
       <c r="BT68" s="1"/>
     </row>
-    <row r="69" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>59</v>
       </c>
@@ -11051,7 +11132,7 @@
       <c r="BS69" s="1"/>
       <c r="BT69" s="1"/>
     </row>
-    <row r="71" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>70</v>
       </c>
@@ -11118,7 +11199,7 @@
       <c r="BS71" s="1"/>
       <c r="BT71" s="1"/>
     </row>
-    <row r="72" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>71</v>
       </c>
@@ -11185,7 +11266,7 @@
       <c r="BS72" s="1"/>
       <c r="BT72" s="1"/>
     </row>
-    <row r="73" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>72</v>
       </c>
@@ -11248,7 +11329,7 @@
       <c r="BS73" s="1"/>
       <c r="BT73" s="1"/>
     </row>
-    <row r="74" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>73</v>
       </c>
@@ -11311,7 +11392,7 @@
       <c r="BS74" s="1"/>
       <c r="BT74" s="1"/>
     </row>
-    <row r="75" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>74</v>
       </c>
@@ -11374,7 +11455,7 @@
       <c r="BS75" s="1"/>
       <c r="BT75" s="1"/>
     </row>
-    <row r="76" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>75</v>
       </c>
@@ -11437,7 +11518,7 @@
       <c r="BS76" s="1"/>
       <c r="BT76" s="1"/>
     </row>
-    <row r="77" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>76</v>
       </c>
@@ -11500,7 +11581,7 @@
       <c r="BS77" s="1"/>
       <c r="BT77" s="1"/>
     </row>
-    <row r="78" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>77</v>
       </c>
@@ -11563,7 +11644,7 @@
       <c r="BS78" s="1"/>
       <c r="BT78" s="1"/>
     </row>
-    <row r="79" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>78</v>
       </c>
@@ -11626,7 +11707,7 @@
       <c r="BS79" s="1"/>
       <c r="BT79" s="1"/>
     </row>
-    <row r="80" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>79</v>
       </c>
@@ -11689,7 +11770,7 @@
       <c r="BS80" s="1"/>
       <c r="BT80" s="1"/>
     </row>
-    <row r="81" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>80</v>
       </c>
@@ -11752,7 +11833,7 @@
       <c r="BS81" s="1"/>
       <c r="BT81" s="1"/>
     </row>
-    <row r="84" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>33</v>
       </c>
@@ -11815,7 +11896,7 @@
       <c r="BS84" s="1"/>
       <c r="BT84" s="1"/>
     </row>
-    <row r="85" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>34</v>
       </c>
@@ -11878,7 +11959,7 @@
       <c r="BS85" s="1"/>
       <c r="BT85" s="1"/>
     </row>
-    <row r="86" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:72" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -11938,7 +12019,7 @@
       <c r="BS86" s="1"/>
       <c r="BT86" s="1"/>
     </row>
-    <row r="87" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:72" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -11998,7 +12079,7 @@
       <c r="BS87" s="1"/>
       <c r="BT87" s="1"/>
     </row>
-    <row r="88" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:72" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -12058,7 +12139,7 @@
       <c r="BS88" s="1"/>
       <c r="BT88" s="1"/>
     </row>
-    <row r="89" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:72" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -12118,7 +12199,7 @@
       <c r="BS89" s="1"/>
       <c r="BT89" s="1"/>
     </row>
-    <row r="91" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
         <v>17</v>
       </c>
@@ -12126,7 +12207,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>18</v>
       </c>
@@ -12189,7 +12270,7 @@
       <c r="BS93" s="1"/>
       <c r="BT93" s="1"/>
     </row>
-    <row r="94" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>19</v>
       </c>
@@ -12252,7 +12333,7 @@
       <c r="BS94" s="1"/>
       <c r="BT94" s="1"/>
     </row>
-    <row r="95" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>20</v>
       </c>
@@ -12315,7 +12396,7 @@
       <c r="BS95" s="1"/>
       <c r="BT95" s="1"/>
     </row>
-    <row r="96" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>26</v>
       </c>
@@ -12378,7 +12459,7 @@
       <c r="BS96" s="1"/>
       <c r="BT96" s="1"/>
     </row>
-    <row r="97" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>21</v>
       </c>
@@ -12441,7 +12522,7 @@
       <c r="BS97" s="1"/>
       <c r="BT97" s="1"/>
     </row>
-    <row r="98" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>22</v>
       </c>
@@ -12520,7 +12601,7 @@
       <c r="BS98" s="1"/>
       <c r="BT98" s="1"/>
     </row>
-    <row r="99" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>23</v>
       </c>
@@ -12625,7 +12706,7 @@
       <c r="BS99" s="1"/>
       <c r="BT99" s="1"/>
     </row>
-    <row r="100" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>24</v>
       </c>
@@ -12736,7 +12817,7 @@
       <c r="BS100" s="1"/>
       <c r="BT100" s="1"/>
     </row>
-    <row r="101" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>25</v>
       </c>
@@ -12847,7 +12928,7 @@
       <c r="BS101" s="1"/>
       <c r="BT101" s="1"/>
     </row>
-    <row r="102" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>27</v>
       </c>
@@ -12958,7 +13039,7 @@
       <c r="BS102" s="1"/>
       <c r="BT102" s="1"/>
     </row>
-    <row r="104" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>33</v>
       </c>
@@ -13021,7 +13102,7 @@
       <c r="BS104" s="1"/>
       <c r="BT104" s="1"/>
     </row>
-    <row r="105" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>34</v>
       </c>
@@ -13084,7 +13165,7 @@
       <c r="BS105" s="1"/>
       <c r="BT105" s="1"/>
     </row>
-    <row r="106" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:72" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -13144,7 +13225,7 @@
       <c r="BS106" s="1"/>
       <c r="BT106" s="1"/>
     </row>
-    <row r="107" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:72" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -13204,7 +13285,7 @@
       <c r="BS107" s="1"/>
       <c r="BT107" s="1"/>
     </row>
-    <row r="109" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B109" s="7" t="s">
         <v>16</v>
       </c>
@@ -13212,7 +13293,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>18</v>
       </c>
@@ -13275,7 +13356,7 @@
       <c r="BS111" s="1"/>
       <c r="BT111" s="1"/>
     </row>
-    <row r="112" spans="2:72" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:72" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>19</v>
       </c>
@@ -13338,7 +13419,7 @@
       <c r="BS112" s="1"/>
       <c r="BT112" s="1"/>
     </row>
-    <row r="113" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>20</v>
       </c>
@@ -13401,7 +13482,7 @@
       <c r="BS113" s="1"/>
       <c r="BT113" s="1"/>
     </row>
-    <row r="114" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>26</v>
       </c>
@@ -13464,7 +13545,7 @@
       <c r="BS114" s="1"/>
       <c r="BT114" s="1"/>
     </row>
-    <row r="115" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>21</v>
       </c>
@@ -13527,7 +13608,7 @@
       <c r="BS115" s="1"/>
       <c r="BT115" s="1"/>
     </row>
-    <row r="116" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>22</v>
       </c>
@@ -13590,7 +13671,7 @@
       <c r="BS116" s="1"/>
       <c r="BT116" s="1"/>
     </row>
-    <row r="117" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>23</v>
       </c>
@@ -13653,7 +13734,7 @@
       <c r="BS117" s="1"/>
       <c r="BT117" s="1"/>
     </row>
-    <row r="118" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>24</v>
       </c>
@@ -13716,7 +13797,7 @@
       <c r="BS118" s="1"/>
       <c r="BT118" s="1"/>
     </row>
-    <row r="119" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>25</v>
       </c>
@@ -13779,7 +13860,7 @@
       <c r="BS119" s="1"/>
       <c r="BT119" s="1"/>
     </row>
-    <row r="120" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>27</v>
       </c>
@@ -13842,7 +13923,7 @@
       <c r="BS120" s="1"/>
       <c r="BT120" s="1"/>
     </row>
-    <row r="121" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>108</v>
       </c>
@@ -13905,7 +13986,7 @@
       <c r="BS121" s="1"/>
       <c r="BT121" s="1"/>
     </row>
-    <row r="122" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>28</v>
       </c>
@@ -13968,7 +14049,7 @@
       <c r="BS122" s="1"/>
       <c r="BT122" s="1"/>
     </row>
-    <row r="124" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>33</v>
       </c>
@@ -14031,7 +14112,7 @@
       <c r="BS124" s="1"/>
       <c r="BT124" s="1"/>
     </row>
-    <row r="125" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:72" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>34</v>
       </c>
@@ -14094,7 +14175,7 @@
       <c r="BS125" s="1"/>
       <c r="BT125" s="1"/>
     </row>
-    <row r="126" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:72" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -14154,7 +14235,7 @@
       <c r="BS126" s="1"/>
       <c r="BT126" s="1"/>
     </row>
-    <row r="127" spans="3:72" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:72" x14ac:dyDescent="0.2">
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -14222,20 +14303,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BP127"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="68" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="68" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:68" ht="21" x14ac:dyDescent="0.35">
@@ -14262,7 +14343,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="3" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:68" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>83</v>
       </c>
@@ -14341,7 +14422,7 @@
       <c r="BO3" s="4"/>
       <c r="BP3" s="5"/>
     </row>
-    <row r="4" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:68" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>84</v>
       </c>
@@ -14410,7 +14491,7 @@
       <c r="BO4" s="4"/>
       <c r="BP4" s="5"/>
     </row>
-    <row r="5" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:68" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>85</v>
       </c>
@@ -14479,7 +14560,7 @@
       <c r="BO5" s="4"/>
       <c r="BP5" s="5"/>
     </row>
-    <row r="6" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:68" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>86</v>
       </c>
@@ -14540,7 +14621,7 @@
       <c r="BO6" s="4"/>
       <c r="BP6" s="5"/>
     </row>
-    <row r="7" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:68" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -14599,7 +14680,7 @@
       <c r="BO7" s="4"/>
       <c r="BP7" s="5"/>
     </row>
-    <row r="9" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:68" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
@@ -14715,22 +14796,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:68" x14ac:dyDescent="0.2">
       <c r="D10" s="36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:68" x14ac:dyDescent="0.2">
       <c r="D11" s="36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:68" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -14801,7 +14882,7 @@
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
     </row>
-    <row r="14" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -14904,7 +14985,7 @@
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
     </row>
-    <row r="15" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -15007,7 +15088,7 @@
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
     </row>
-    <row r="16" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -15110,7 +15191,7 @@
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
     </row>
-    <row r="17" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>5</v>
       </c>
@@ -15213,7 +15294,7 @@
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
     </row>
-    <row r="18" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -15330,7 +15411,7 @@
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
     </row>
-    <row r="19" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -15447,7 +15528,7 @@
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
     </row>
-    <row r="20" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>8</v>
       </c>
@@ -15564,7 +15645,7 @@
       <c r="BO20" s="1"/>
       <c r="BP20" s="1"/>
     </row>
-    <row r="21" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>9</v>
       </c>
@@ -15681,7 +15762,7 @@
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
     </row>
-    <row r="22" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>10</v>
       </c>
@@ -15798,7 +15879,7 @@
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
     </row>
-    <row r="23" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -15915,7 +15996,7 @@
       <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
     </row>
-    <row r="24" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -16032,7 +16113,7 @@
       <c r="BO24" s="1"/>
       <c r="BP24" s="1"/>
     </row>
-    <row r="25" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>13</v>
       </c>
@@ -16149,7 +16230,7 @@
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
     </row>
-    <row r="27" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -16228,7 +16309,7 @@
       <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
     </row>
-    <row r="28" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -16299,7 +16380,7 @@
       <c r="BO28" s="1"/>
       <c r="BP28" s="1"/>
     </row>
-    <row r="29" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>28</v>
       </c>
@@ -16370,7 +16451,7 @@
       <c r="BO29" s="1"/>
       <c r="BP29" s="1"/>
     </row>
-    <row r="30" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>64</v>
       </c>
@@ -16441,7 +16522,7 @@
       <c r="BO30" s="1"/>
       <c r="BP30" s="1"/>
     </row>
-    <row r="32" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>1</v>
       </c>
@@ -16514,7 +16595,7 @@
       <c r="BO32" s="1"/>
       <c r="BP32" s="1"/>
     </row>
-    <row r="33" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>2</v>
       </c>
@@ -16585,7 +16666,7 @@
       <c r="BO33" s="1"/>
       <c r="BP33" s="1"/>
     </row>
-    <row r="34" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>3</v>
       </c>
@@ -16646,7 +16727,7 @@
       <c r="BO34" s="1"/>
       <c r="BP34" s="1"/>
     </row>
-    <row r="35" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>4</v>
       </c>
@@ -16709,7 +16790,7 @@
       <c r="BO35" s="1"/>
       <c r="BP35" s="1"/>
     </row>
-    <row r="36" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>5</v>
       </c>
@@ -16770,7 +16851,7 @@
       <c r="BO36" s="1"/>
       <c r="BP36" s="1"/>
     </row>
-    <row r="37" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>6</v>
       </c>
@@ -16831,7 +16912,7 @@
       <c r="BO37" s="1"/>
       <c r="BP37" s="1"/>
     </row>
-    <row r="38" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
         <v>7</v>
       </c>
@@ -16892,7 +16973,7 @@
       <c r="BO38" s="1"/>
       <c r="BP38" s="1"/>
     </row>
-    <row r="39" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
         <v>8</v>
       </c>
@@ -16953,7 +17034,7 @@
       <c r="BO39" s="1"/>
       <c r="BP39" s="1"/>
     </row>
-    <row r="40" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
         <v>9</v>
       </c>
@@ -17016,7 +17097,7 @@
       <c r="BO40" s="1"/>
       <c r="BP40" s="1"/>
     </row>
-    <row r="41" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
         <v>0</v>
       </c>
@@ -17079,7 +17160,7 @@
       <c r="BO41" s="1"/>
       <c r="BP41" s="1"/>
     </row>
-    <row r="44" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>35</v>
       </c>
@@ -17153,7 +17234,7 @@
       <c r="BO44" s="1"/>
       <c r="BP44" s="1"/>
     </row>
-    <row r="45" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>36</v>
       </c>
@@ -17224,7 +17305,7 @@
       <c r="BO45" s="1"/>
       <c r="BP45" s="1"/>
     </row>
-    <row r="46" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>37</v>
       </c>
@@ -17290,7 +17371,7 @@
       <c r="BO46" s="1"/>
       <c r="BP46" s="1"/>
     </row>
-    <row r="47" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>38</v>
       </c>
@@ -17354,7 +17435,7 @@
       <c r="BO47" s="1"/>
       <c r="BP47" s="1"/>
     </row>
-    <row r="48" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>39</v>
       </c>
@@ -17418,7 +17499,7 @@
       <c r="BO48" s="1"/>
       <c r="BP48" s="1"/>
     </row>
-    <row r="49" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>40</v>
       </c>
@@ -17482,7 +17563,7 @@
       <c r="BO49" s="1"/>
       <c r="BP49" s="1"/>
     </row>
-    <row r="50" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>41</v>
       </c>
@@ -17546,7 +17627,7 @@
       <c r="BO50" s="1"/>
       <c r="BP50" s="1"/>
     </row>
-    <row r="51" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>60</v>
       </c>
@@ -17610,7 +17691,7 @@
       <c r="BO51" s="1"/>
       <c r="BP51" s="1"/>
     </row>
-    <row r="52" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -17674,7 +17755,7 @@
       <c r="BO52" s="1"/>
       <c r="BP52" s="1"/>
     </row>
-    <row r="53" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>43</v>
       </c>
@@ -17738,7 +17819,7 @@
       <c r="BO53" s="1"/>
       <c r="BP53" s="1"/>
     </row>
-    <row r="54" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -17802,7 +17883,7 @@
       <c r="BO54" s="1"/>
       <c r="BP54" s="1"/>
     </row>
-    <row r="55" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>45</v>
       </c>
@@ -17866,7 +17947,7 @@
       <c r="BO55" s="1"/>
       <c r="BP55" s="1"/>
     </row>
-    <row r="56" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>46</v>
       </c>
@@ -17932,7 +18013,7 @@
       <c r="BO56" s="1"/>
       <c r="BP56" s="1"/>
     </row>
-    <row r="57" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>47</v>
       </c>
@@ -17996,7 +18077,7 @@
       <c r="BO57" s="1"/>
       <c r="BP57" s="1"/>
     </row>
-    <row r="58" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>48</v>
       </c>
@@ -18060,7 +18141,7 @@
       <c r="BO58" s="1"/>
       <c r="BP58" s="1"/>
     </row>
-    <row r="59" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>49</v>
       </c>
@@ -18124,7 +18205,7 @@
       <c r="BO59" s="1"/>
       <c r="BP59" s="1"/>
     </row>
-    <row r="60" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>50</v>
       </c>
@@ -18190,7 +18271,7 @@
       <c r="BO60" s="1"/>
       <c r="BP60" s="1"/>
     </row>
-    <row r="61" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>51</v>
       </c>
@@ -18254,7 +18335,7 @@
       <c r="BO61" s="1"/>
       <c r="BP61" s="1"/>
     </row>
-    <row r="62" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>52</v>
       </c>
@@ -18320,7 +18401,7 @@
       <c r="BO62" s="1"/>
       <c r="BP62" s="1"/>
     </row>
-    <row r="63" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>53</v>
       </c>
@@ -18384,7 +18465,7 @@
       <c r="BO63" s="1"/>
       <c r="BP63" s="1"/>
     </row>
-    <row r="64" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -18448,7 +18529,7 @@
       <c r="BO64" s="1"/>
       <c r="BP64" s="1"/>
     </row>
-    <row r="65" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>55</v>
       </c>
@@ -18512,7 +18593,7 @@
       <c r="BO65" s="1"/>
       <c r="BP65" s="1"/>
     </row>
-    <row r="66" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>56</v>
       </c>
@@ -18573,7 +18654,7 @@
       <c r="BO66" s="1"/>
       <c r="BP66" s="1"/>
     </row>
-    <row r="67" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>57</v>
       </c>
@@ -18634,7 +18715,7 @@
       <c r="BO67" s="1"/>
       <c r="BP67" s="1"/>
     </row>
-    <row r="68" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>58</v>
       </c>
@@ -18695,7 +18776,7 @@
       <c r="BO68" s="1"/>
       <c r="BP68" s="1"/>
     </row>
-    <row r="69" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>59</v>
       </c>
@@ -18758,7 +18839,7 @@
       <c r="BO69" s="1"/>
       <c r="BP69" s="1"/>
     </row>
-    <row r="71" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>70</v>
       </c>
@@ -18829,7 +18910,7 @@
       <c r="BO71" s="1"/>
       <c r="BP71" s="1"/>
     </row>
-    <row r="72" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>71</v>
       </c>
@@ -18896,7 +18977,7 @@
       <c r="BO72" s="1"/>
       <c r="BP72" s="1"/>
     </row>
-    <row r="73" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>72</v>
       </c>
@@ -18959,7 +19040,7 @@
       <c r="BO73" s="1"/>
       <c r="BP73" s="1"/>
     </row>
-    <row r="74" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>73</v>
       </c>
@@ -19022,7 +19103,7 @@
       <c r="BO74" s="1"/>
       <c r="BP74" s="1"/>
     </row>
-    <row r="75" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>74</v>
       </c>
@@ -19085,7 +19166,7 @@
       <c r="BO75" s="1"/>
       <c r="BP75" s="1"/>
     </row>
-    <row r="76" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>75</v>
       </c>
@@ -19148,7 +19229,7 @@
       <c r="BO76" s="1"/>
       <c r="BP76" s="1"/>
     </row>
-    <row r="77" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>76</v>
       </c>
@@ -19211,7 +19292,7 @@
       <c r="BO77" s="1"/>
       <c r="BP77" s="1"/>
     </row>
-    <row r="78" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>77</v>
       </c>
@@ -19274,7 +19355,7 @@
       <c r="BO78" s="1"/>
       <c r="BP78" s="1"/>
     </row>
-    <row r="79" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>78</v>
       </c>
@@ -19337,7 +19418,7 @@
       <c r="BO79" s="1"/>
       <c r="BP79" s="1"/>
     </row>
-    <row r="80" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>79</v>
       </c>
@@ -19400,7 +19481,7 @@
       <c r="BO80" s="1"/>
       <c r="BP80" s="1"/>
     </row>
-    <row r="81" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>80</v>
       </c>
@@ -19463,7 +19544,7 @@
       <c r="BO81" s="1"/>
       <c r="BP81" s="1"/>
     </row>
-    <row r="84" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>33</v>
       </c>
@@ -19522,7 +19603,7 @@
       <c r="BO84" s="1"/>
       <c r="BP84" s="1"/>
     </row>
-    <row r="85" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>34</v>
       </c>
@@ -19581,7 +19662,7 @@
       <c r="BO85" s="1"/>
       <c r="BP85" s="1"/>
     </row>
-    <row r="86" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:68" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -19637,7 +19718,7 @@
       <c r="BO86" s="1"/>
       <c r="BP86" s="1"/>
     </row>
-    <row r="87" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:68" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -19693,7 +19774,7 @@
       <c r="BO87" s="1"/>
       <c r="BP87" s="1"/>
     </row>
-    <row r="88" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:68" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -19749,7 +19830,7 @@
       <c r="BO88" s="1"/>
       <c r="BP88" s="1"/>
     </row>
-    <row r="89" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:68" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -19805,7 +19886,7 @@
       <c r="BO89" s="1"/>
       <c r="BP89" s="1"/>
     </row>
-    <row r="91" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:68" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
         <v>17</v>
       </c>
@@ -19813,7 +19894,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>18</v>
       </c>
@@ -19872,7 +19953,7 @@
       <c r="BO93" s="1"/>
       <c r="BP93" s="1"/>
     </row>
-    <row r="94" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>19</v>
       </c>
@@ -19931,7 +20012,7 @@
       <c r="BO94" s="1"/>
       <c r="BP94" s="1"/>
     </row>
-    <row r="95" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>20</v>
       </c>
@@ -19990,7 +20071,7 @@
       <c r="BO95" s="1"/>
       <c r="BP95" s="1"/>
     </row>
-    <row r="96" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>26</v>
       </c>
@@ -20049,7 +20130,7 @@
       <c r="BO96" s="1"/>
       <c r="BP96" s="1"/>
     </row>
-    <row r="97" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>21</v>
       </c>
@@ -20108,7 +20189,7 @@
       <c r="BO97" s="1"/>
       <c r="BP97" s="1"/>
     </row>
-    <row r="98" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>22</v>
       </c>
@@ -20167,7 +20248,7 @@
       <c r="BO98" s="1"/>
       <c r="BP98" s="1"/>
     </row>
-    <row r="99" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>23</v>
       </c>
@@ -20226,7 +20307,7 @@
       <c r="BO99" s="1"/>
       <c r="BP99" s="1"/>
     </row>
-    <row r="100" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>24</v>
       </c>
@@ -20285,7 +20366,7 @@
       <c r="BO100" s="1"/>
       <c r="BP100" s="1"/>
     </row>
-    <row r="101" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>25</v>
       </c>
@@ -20344,7 +20425,7 @@
       <c r="BO101" s="1"/>
       <c r="BP101" s="1"/>
     </row>
-    <row r="102" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>27</v>
       </c>
@@ -20403,7 +20484,7 @@
       <c r="BO102" s="1"/>
       <c r="BP102" s="1"/>
     </row>
-    <row r="104" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>33</v>
       </c>
@@ -20462,7 +20543,7 @@
       <c r="BO104" s="1"/>
       <c r="BP104" s="1"/>
     </row>
-    <row r="105" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>34</v>
       </c>
@@ -20521,7 +20602,7 @@
       <c r="BO105" s="1"/>
       <c r="BP105" s="1"/>
     </row>
-    <row r="106" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:68" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -20577,7 +20658,7 @@
       <c r="BO106" s="1"/>
       <c r="BP106" s="1"/>
     </row>
-    <row r="107" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:68" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -20633,7 +20714,7 @@
       <c r="BO107" s="1"/>
       <c r="BP107" s="1"/>
     </row>
-    <row r="109" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:68" x14ac:dyDescent="0.2">
       <c r="B109" s="7" t="s">
         <v>16</v>
       </c>
@@ -20641,7 +20722,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>18</v>
       </c>
@@ -20738,7 +20819,7 @@
       <c r="BO111" s="1"/>
       <c r="BP111" s="1"/>
     </row>
-    <row r="112" spans="2:68" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:68" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>19</v>
       </c>
@@ -20827,7 +20908,7 @@
       <c r="BO112" s="1"/>
       <c r="BP112" s="1"/>
     </row>
-    <row r="113" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>20</v>
       </c>
@@ -20918,7 +20999,7 @@
       <c r="BO113" s="1"/>
       <c r="BP113" s="1"/>
     </row>
-    <row r="114" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>26</v>
       </c>
@@ -21009,7 +21090,7 @@
       <c r="BO114" s="1"/>
       <c r="BP114" s="1"/>
     </row>
-    <row r="115" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>21</v>
       </c>
@@ -21100,7 +21181,7 @@
       <c r="BO115" s="1"/>
       <c r="BP115" s="1"/>
     </row>
-    <row r="116" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>22</v>
       </c>
@@ -21191,7 +21272,7 @@
       <c r="BO116" s="1"/>
       <c r="BP116" s="1"/>
     </row>
-    <row r="117" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>23</v>
       </c>
@@ -21280,7 +21361,7 @@
       <c r="BO117" s="1"/>
       <c r="BP117" s="1"/>
     </row>
-    <row r="118" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>24</v>
       </c>
@@ -21369,7 +21450,7 @@
       <c r="BO118" s="1"/>
       <c r="BP118" s="1"/>
     </row>
-    <row r="119" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>25</v>
       </c>
@@ -21458,7 +21539,7 @@
       <c r="BO119" s="1"/>
       <c r="BP119" s="1"/>
     </row>
-    <row r="120" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>27</v>
       </c>
@@ -21547,7 +21628,7 @@
       <c r="BO120" s="1"/>
       <c r="BP120" s="1"/>
     </row>
-    <row r="121" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>108</v>
       </c>
@@ -21636,7 +21717,7 @@
       <c r="BO121" s="1"/>
       <c r="BP121" s="1"/>
     </row>
-    <row r="122" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>28</v>
       </c>
@@ -21701,7 +21782,7 @@
       <c r="BO122" s="1"/>
       <c r="BP122" s="1"/>
     </row>
-    <row r="124" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>33</v>
       </c>
@@ -21760,7 +21841,7 @@
       <c r="BO124" s="1"/>
       <c r="BP124" s="1"/>
     </row>
-    <row r="125" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>34</v>
       </c>
@@ -21819,7 +21900,7 @@
       <c r="BO125" s="1"/>
       <c r="BP125" s="1"/>
     </row>
-    <row r="126" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:68" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -21875,7 +21956,7 @@
       <c r="BO126" s="1"/>
       <c r="BP126" s="1"/>
     </row>
-    <row r="127" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:68" x14ac:dyDescent="0.2">
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>

--- a/Inventory of Keyboard Combinations.xlsx
+++ b/Inventory of Keyboard Combinations.xlsx
@@ -1057,7 +1057,7 @@
     <col min="4" max="50" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:50" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:50" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>89</v>
       </c>
@@ -15087,7 +15087,7 @@
     <col min="4" max="68" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:68" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>89</v>
       </c>
